--- a/inst/extdata/postfloodintervention.xlsx
+++ b/inst/extdata/postfloodintervention.xlsx
@@ -119,7 +119,7 @@
     <t xml:space="preserve">Absent</t>
   </si>
   <si>
-    <t xml:space="preserve">?S / cm</t>
+    <t xml:space="preserve">μS / cm</t>
   </si>
   <si>
     <t xml:space="preserve">ppb</t>

--- a/inst/extdata/postfloodintervention.xlsx
+++ b/inst/extdata/postfloodintervention.xlsx
@@ -20154,9 +20154,7 @@
       <c r="R186" t="n">
         <v>0</v>
       </c>
-      <c r="S186" t="n">
-        <v>0.73</v>
-      </c>
+      <c r="S186"/>
       <c r="T186" t="n">
         <v>29.6</v>
       </c>
@@ -28656,9 +28654,7 @@
       <c r="R280" t="n">
         <v>0.35</v>
       </c>
-      <c r="S280" t="n">
-        <v>0.68</v>
-      </c>
+      <c r="S280"/>
       <c r="T280" t="n">
         <v>28</v>
       </c>
